--- a/F9Resource/src/Keywords/Automation Test Cases/Backup/PurchaseReturn.xlsx
+++ b/F9Resource/src/Keywords/Automation Test Cases/Backup/PurchaseReturn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="4" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenarios" r:id="rId1" sheetId="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="194">
   <si>
     <t>TestScenario Id</t>
   </si>
@@ -468,9 +468,6 @@
     <t>Verify if it is validating that the Body Grid's data is missing while saving the voucher</t>
   </si>
   <si>
-    <t>Field is Mandatory</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -615,10 +612,6 @@
     <t>37.19</t>
   </si>
   <si>
-    <t>Message
-Voucher saved successfully</t>
-  </si>
-  <si>
     <t>60.31</t>
   </si>
   <si>
@@ -628,44 +621,35 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Error
-There should be atleast one row entered.</t>
-  </si>
-  <si>
     <t>20.0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>This Field is Mandatory
-Controls marked with arrow mark, require Values
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Voucher saved successfully</t>
+  </si>
+  <si>
+    <t>Controls marked with arrow mark, require Values
 Main -&gt; PurchaseAC</t>
   </si>
   <si>
-    <t>Error
-Cash account must be defined in Settings\VAT in order to raise a receipt.</t>
-  </si>
-  <si>
-    <t>Blocked</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>AUTO040119</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>11.04</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>41.8</t>
-  </si>
-  <si>
-    <t>0.0</t>
+    <t>This Transaction will make the Stock Negative</t>
   </si>
 </sst>
 </file>
@@ -721,7 +705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="412">
+  <fills count="700">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,6 +904,186 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -940,16 +1104,6 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -960,6 +1114,56 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -970,26 +1174,6 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1000,6 +1184,26 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1010,16 +1214,6 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1050,6 +1244,326 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1290,1282 +1804,2192 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -2807,7 +4231,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="392">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
@@ -2871,33 +4295,33 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="9" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="13" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="17" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="20" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="22" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="25" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="27" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="5" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="8" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="12" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="10" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="11" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="16" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="14" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="15" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="19" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="18" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="21" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="24" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="23" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="26" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
@@ -3089,7 +4513,151 @@
     <xf applyFill="true" borderId="0" fillId="405" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="407" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="409" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="411" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="411" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="413" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="415" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="417" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="419" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="421" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="423" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="425" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="427" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="429" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="431" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="433" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="435" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="437" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="439" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="441" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="443" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="445" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="447" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="449" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="451" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="453" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="455" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="457" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="459" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="461" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="463" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="465" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="467" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="469" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="471" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="473" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="475" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="477" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="479" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="481" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="483" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="485" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="487" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="489" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="491" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="493" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="495" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="497" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="499" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="539" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="549" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="551" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="553" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="593" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="595" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="597" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="599" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="607" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="609" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="611" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="613" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="615" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="617" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="619" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="621" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="623" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="625" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="627" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="629" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="631" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="633" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="635" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="637" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="639" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="641" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="643" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="645" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="647" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="649" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="651" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="653" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="655" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="657" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="659" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="661" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="663" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="665" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="667" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="669" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="671" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="673" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="675" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="677" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="679" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="681" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="683" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="685" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="687" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="689" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="691" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="693" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="695" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="697" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="699" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3437,7 +5005,7 @@
         <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,7 +5019,7 @@
         <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3459,12 +5027,12 @@
         <v>70</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="226" t="s">
+      <c r="D4" s="370" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3473,51 +5041,51 @@
         <v>71</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="229" t="s">
-        <v>192</v>
+      <c r="D5" s="373" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="55" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3525,13 +5093,13 @@
         <v>75</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="233" t="s">
-        <v>192</v>
+      <c r="D9" s="377" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,13 +5107,13 @@
         <v>76</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="237" t="s">
-        <v>192</v>
+      <c r="D10" s="381" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3553,13 +5121,13 @@
         <v>77</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="240" t="s">
-        <v>192</v>
+      <c r="D11" s="384" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3567,13 +5135,13 @@
         <v>78</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="242" t="s">
-        <v>192</v>
+      <c r="D12" s="386" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3581,13 +5149,13 @@
         <v>79</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="245" t="s">
-        <v>192</v>
+      <c r="D13" s="389" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3595,13 +5163,13 @@
         <v>114</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s" s="247">
-        <v>192</v>
+      <c r="D14" t="s" s="391">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3630,8 +5198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3720,7 +5288,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3756,12 +5324,12 @@
         <v>70</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="224" t="s">
+      <c r="D5" s="368" t="s">
         <v>192</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -3774,13 +5342,13 @@
         <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row ht="30" r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3788,13 +5356,13 @@
         <v>70</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="225" t="s">
-        <v>192</v>
+      <c r="D6" s="369" t="s">
+        <v>187</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>85</v>
@@ -3812,13 +5380,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="227" t="s">
-        <v>192</v>
+      <c r="D7" s="371" t="s">
+        <v>187</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>16</v>
@@ -3835,13 +5403,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="228" t="s">
-        <v>192</v>
+      <c r="D8" s="372" t="s">
+        <v>187</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>94</v>
@@ -3859,7 +5427,7 @@
         <v>72</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>37</v>
@@ -3895,7 +5463,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>38</v>
@@ -3925,7 +5493,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>39</v>
@@ -4007,13 +5575,13 @@
         <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="232" t="s">
-        <v>192</v>
+      <c r="D2" s="376" t="s">
+        <v>187</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -4026,7 +5594,7 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -4071,13 +5639,13 @@
         <v>87</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="230" t="s">
-        <v>192</v>
+      <c r="D4" s="374" t="s">
+        <v>187</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>54</v>
@@ -4090,10 +5658,10 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -4131,22 +5699,22 @@
         <v>88</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="231" t="s">
-        <v>192</v>
+      <c r="D6" s="375" t="s">
+        <v>187</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4237,7 +5805,7 @@
     <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>20</v>
@@ -4367,7 +5935,7 @@
     <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>97</v>
@@ -4380,10 +5948,10 @@
         <v>96</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
@@ -4405,7 +5973,7 @@
         <v>125</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -4422,8 +5990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4477,13 +6045,13 @@
         <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="236" t="s">
-        <v>192</v>
+        <v>141</v>
+      </c>
+      <c r="D2" s="380" t="s">
+        <v>187</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -4496,7 +6064,7 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -4541,13 +6109,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="234" t="s">
-        <v>192</v>
+      <c r="D4" s="378" t="s">
+        <v>187</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>54</v>
@@ -4560,10 +6128,10 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -4601,22 +6169,22 @@
         <v>91</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="235" t="s">
-        <v>192</v>
+      <c r="D6" s="379" t="s">
+        <v>187</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4707,7 +6275,7 @@
     <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>20</v>
@@ -4727,7 +6295,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -4837,7 +6405,7 @@
     <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>97</v>
@@ -4853,7 +6421,7 @@
         <v>125</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -4870,14 +6438,14 @@
         <v>96</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -4892,8 +6460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4947,13 +6515,13 @@
         <v>77</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="239" t="s">
-        <v>192</v>
+      <c r="D2" s="383" t="s">
+        <v>187</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -4962,8 +6530,8 @@
         <v>35</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="12" t="s">
-        <v>133</v>
+      <c r="H2" t="s">
+        <v>189</v>
       </c>
       <c r="I2" t="s">
         <v>189</v>
@@ -5011,13 +6579,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="238" t="s">
-        <v>192</v>
+      <c r="D4" s="382" t="s">
+        <v>187</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>54</v>
@@ -5030,10 +6598,10 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5071,7 +6639,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>63</v>
@@ -5169,7 +6737,7 @@
     <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>20</v>
@@ -5187,7 +6755,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5297,7 +6865,7 @@
     <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>97</v>
@@ -5386,13 +6954,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="241" t="s">
-        <v>192</v>
+      <c r="D2" s="385" t="s">
+        <v>187</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -5402,10 +6970,10 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -5450,7 +7018,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>53</v>
@@ -5502,7 +7070,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>63</v>
@@ -5600,7 +7168,7 @@
     <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>20</v>
@@ -5612,7 +7180,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>131</v>
@@ -5728,7 +7296,7 @@
     <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>97</v>
@@ -5810,13 +7378,13 @@
         <v>79</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="244" t="s">
-        <v>192</v>
+      <c r="D2" s="388" t="s">
+        <v>187</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -5826,10 +7394,10 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -5871,16 +7439,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="243" t="s">
-        <v>192</v>
+      <c r="D4" s="387" t="s">
+        <v>187</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>54</v>
@@ -5893,10 +7461,10 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5931,10 +7499,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>63</v>
@@ -5975,7 +7543,7 @@
     </row>
     <row ht="30" r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>126</v>
@@ -6032,7 +7600,7 @@
     <row ht="30" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>20</v>
@@ -6051,7 +7619,7 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L10" s="3"/>
     </row>
@@ -6162,7 +7730,7 @@
     <row ht="30" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>97</v>
@@ -6178,7 +7746,7 @@
         <v>121</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -6194,7 +7762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
@@ -6229,13 +7797,13 @@
         <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="246" t="s">
-        <v>192</v>
+      <c r="D2" s="390" t="s">
+        <v>187</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>41</v>
